--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.004579422598601078</v>
+        <v>0.00210731725890954</v>
       </c>
       <c r="E2">
-        <v>0.004579422598601078</v>
+        <v>0.00210731725890954</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.548629847208299E-33</v>
+        <v>3.052747142492149E-28</v>
       </c>
       <c r="E3">
-        <v>5.548629847208299E-33</v>
+        <v>3.052747142492149E-28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4.027363491263479E-08</v>
+        <v>1.295550330632437E-11</v>
       </c>
       <c r="E4">
-        <v>4.027363491263479E-08</v>
+        <v>1.295550330632437E-11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999997163467632</v>
+        <v>0.9996557658806731</v>
       </c>
       <c r="E5">
-        <v>0.9999997163467632</v>
+        <v>0.9996557658806731</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999967646725672</v>
+        <v>0.9999999999999631</v>
       </c>
       <c r="E6">
-        <v>0.9999967646725672</v>
+        <v>0.9999999999999631</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.078843979379805E-08</v>
+        <v>2.701160201811288E-06</v>
       </c>
       <c r="E7">
-        <v>0.9999999592115602</v>
+        <v>0.9999972988397982</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999999467</v>
+        <v>0.9999996923086071</v>
       </c>
       <c r="E8">
-        <v>5.329070518200751E-14</v>
+        <v>3.076913929200842E-07</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999997803428</v>
+        <v>0.999999999999855</v>
       </c>
       <c r="E11">
-        <v>2.196571813328774E-10</v>
+        <v>1.449951270160454E-13</v>
       </c>
       <c r="F11">
-        <v>4.473635196685791</v>
+        <v>5.172896385192871</v>
       </c>
       <c r="G11">
         <v>0.7</v>
